--- a/StructureDefinition-mp4p-stillend.xlsx
+++ b/StructureDefinition-mp4p-stillend.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="569">
   <si>
     <t>Property</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>O@b</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -2400,12 +2403,12 @@
         <v>80</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2416,28 +2419,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2487,13 +2490,13 @@
         <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>80</v>
@@ -2525,7 +2528,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2536,25 +2539,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2605,19 +2608,19 @@
         <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>80</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2654,7 +2657,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>80</v>
@@ -2666,13 +2669,13 @@
         <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2723,13 +2726,13 @@
         <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>80</v>
@@ -2747,7 +2750,7 @@
         <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>80</v>
@@ -2761,11 +2764,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2784,16 +2787,16 @@
         <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2831,19 +2834,19 @@
         <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>78</v>
@@ -2855,7 +2858,7 @@
         <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>80</v>
@@ -2867,7 +2870,7 @@
         <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>80</v>
@@ -2881,7 +2884,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2892,7 +2895,7 @@
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>80</v>
@@ -2901,19 +2904,19 @@
         <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2963,19 +2966,19 @@
         <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>80</v>
@@ -3001,7 +3004,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -3012,7 +3015,7 @@
         <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>80</v>
@@ -3021,19 +3024,19 @@
         <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3083,19 +3086,19 @@
         <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>80</v>
@@ -3121,7 +3124,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3132,7 +3135,7 @@
         <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>80</v>
@@ -3141,19 +3144,19 @@
         <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3203,19 +3206,19 @@
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>80</v>
@@ -3241,7 +3244,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3255,25 +3258,25 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3323,7 +3326,7 @@
         <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -3335,7 +3338,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>80</v>
@@ -3361,7 +3364,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3381,19 +3384,19 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3419,13 +3422,13 @@
         <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>80</v>
@@ -3443,7 +3446,7 @@
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3455,7 +3458,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>80</v>
@@ -3481,7 +3484,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3501,19 +3504,19 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3539,13 +3542,13 @@
         <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>80</v>
@@ -3563,7 +3566,7 @@
         <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3575,7 +3578,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>80</v>
@@ -3601,7 +3604,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3612,28 +3615,28 @@
         <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3683,19 +3686,19 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>80</v>
@@ -3721,7 +3724,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3732,10 +3735,10 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3744,16 +3747,16 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3779,13 +3782,13 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>80</v>
@@ -3803,19 +3806,19 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>80</v>
@@ -3841,18 +3844,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
@@ -3864,16 +3867,16 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3923,19 +3926,19 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>80</v>
@@ -3947,7 +3950,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3961,11 +3964,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3984,16 +3987,16 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4043,7 +4046,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -4067,7 +4070,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4081,11 +4084,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4104,16 +4107,16 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4163,7 +4166,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -4175,7 +4178,7 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>80</v>
@@ -4187,7 +4190,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4201,11 +4204,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4218,25 +4221,25 @@
         <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -4285,7 +4288,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4297,7 +4300,7 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>80</v>
@@ -4309,7 +4312,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4323,7 +4326,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4343,20 +4346,20 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4405,7 +4408,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4417,22 +4420,22 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4443,11 +4446,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4463,20 +4466,20 @@
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
@@ -4525,7 +4528,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4537,19 +4540,19 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4563,11 +4566,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4583,19 +4586,19 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4645,7 +4648,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4657,19 +4660,19 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4683,7 +4686,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4691,41 +4694,41 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>80</v>
@@ -4743,13 +4746,13 @@
         <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>80</v>
@@ -4767,34 +4770,34 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4805,7 +4808,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4828,19 +4831,19 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4865,13 +4868,13 @@
         <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>80</v>
@@ -4889,7 +4892,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4901,7 +4904,7 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>80</v>
@@ -4913,10 +4916,10 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4927,42 +4930,42 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4987,13 +4990,13 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>80</v>
@@ -5011,37 +5014,37 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -5049,7 +5052,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5060,7 +5063,7 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
@@ -5072,13 +5075,13 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5129,13 +5132,13 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
@@ -5153,7 +5156,7 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5167,11 +5170,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5190,16 +5193,16 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5237,19 +5240,19 @@
         <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5261,7 +5264,7 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>80</v>
@@ -5273,7 +5276,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5287,7 +5290,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5295,34 +5298,34 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5359,17 +5362,17 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5381,7 +5384,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>80</v>
@@ -5390,10 +5393,10 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5407,44 +5410,44 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5454,7 +5457,7 @@
         <v>80</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>80</v>
@@ -5493,7 +5496,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5505,7 +5508,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
@@ -5514,10 +5517,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5542,7 +5545,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5554,13 +5557,13 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5611,13 +5614,13 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
@@ -5635,7 +5638,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5649,11 +5652,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5672,16 +5675,16 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5719,19 +5722,19 @@
         <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5743,7 +5746,7 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>80</v>
@@ -5755,7 +5758,7 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5769,7 +5772,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5777,34 +5780,34 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5853,19 +5856,19 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>80</v>
@@ -5874,10 +5877,10 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5891,7 +5894,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5902,7 +5905,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5911,19 +5914,19 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5973,19 +5976,19 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>80</v>
@@ -5994,10 +5997,10 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6011,7 +6014,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6019,32 +6022,32 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -6093,19 +6096,19 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>80</v>
@@ -6114,10 +6117,10 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6131,7 +6134,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6142,7 +6145,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -6151,20 +6154,20 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -6213,19 +6216,19 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>80</v>
@@ -6234,10 +6237,10 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6251,7 +6254,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6262,7 +6265,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
@@ -6271,22 +6274,22 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6335,19 +6338,19 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>80</v>
@@ -6356,10 +6359,10 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6373,7 +6376,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6384,7 +6387,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
@@ -6393,22 +6396,22 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6457,19 +6460,19 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>80</v>
@@ -6478,10 +6481,10 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6495,7 +6498,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6503,34 +6506,34 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6579,34 +6582,34 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6617,7 +6620,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6637,19 +6640,19 @@
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6699,7 +6702,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6711,7 +6714,7 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
@@ -6720,13 +6723,13 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6737,18 +6740,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -6757,22 +6760,22 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6821,34 +6824,34 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6859,42 +6862,42 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6931,44 +6934,44 @@
         <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6979,44 +6982,44 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -7065,34 +7068,34 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7103,7 +7106,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7114,7 +7117,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -7126,13 +7129,13 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7183,13 +7186,13 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
@@ -7221,7 +7224,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7244,13 +7247,13 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7289,17 +7292,17 @@
         <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7311,7 +7314,7 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>80</v>
@@ -7337,10 +7340,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>80</v>
@@ -7350,10 +7353,10 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7362,13 +7365,13 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7419,7 +7422,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7428,10 +7431,10 @@
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>80</v>
@@ -7443,7 +7446,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7457,7 +7460,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7468,7 +7471,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -7480,13 +7483,13 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7537,13 +7540,13 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>80</v>
@@ -7575,7 +7578,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7586,7 +7589,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>80</v>
@@ -7595,19 +7598,19 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7657,19 +7660,19 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>80</v>
@@ -7678,13 +7681,13 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7695,7 +7698,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7715,20 +7718,20 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7777,7 +7780,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7789,22 +7792,22 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7815,7 +7818,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7823,34 +7826,34 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7887,47 +7890,47 @@
         <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -7935,44 +7938,44 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -8021,37 +8024,37 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8059,7 +8062,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8082,19 +8085,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -8119,13 +8122,13 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -8143,19 +8146,19 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>80</v>
@@ -8164,10 +8167,10 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8181,11 +8184,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -8204,19 +8207,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -8241,13 +8244,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -8265,7 +8268,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8277,25 +8280,25 @@
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8303,7 +8306,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8326,19 +8329,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8387,7 +8390,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8399,7 +8402,7 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>80</v>
@@ -8408,10 +8411,10 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8425,7 +8428,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8448,16 +8451,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8483,13 +8486,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8507,37 +8510,37 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8545,7 +8548,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8556,7 +8559,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>80</v>
@@ -8568,19 +8571,19 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8605,13 +8608,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8629,19 +8632,19 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>80</v>
@@ -8650,10 +8653,10 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8667,7 +8670,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8690,16 +8693,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8749,37 +8752,37 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -8787,7 +8790,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8810,16 +8813,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8869,37 +8872,37 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -8907,7 +8910,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8930,19 +8933,19 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8991,7 +8994,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9003,7 +9006,7 @@
         <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>80</v>
@@ -9012,10 +9015,10 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9029,7 +9032,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9040,7 +9043,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -9052,13 +9055,13 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -9109,13 +9112,13 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>80</v>
@@ -9133,7 +9136,7 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9147,11 +9150,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9170,16 +9173,16 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9229,7 +9232,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9241,7 +9244,7 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>80</v>
@@ -9253,7 +9256,7 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9267,11 +9270,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9284,25 +9287,25 @@
         <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9351,7 +9354,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9363,7 +9366,7 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>80</v>
@@ -9375,7 +9378,7 @@
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9389,7 +9392,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9400,7 +9403,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
@@ -9412,13 +9415,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9469,19 +9472,19 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>80</v>
@@ -9490,10 +9493,10 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9507,7 +9510,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9518,7 +9521,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -9530,13 +9533,13 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9587,19 +9590,19 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>80</v>
@@ -9608,10 +9611,10 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9625,7 +9628,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9636,7 +9639,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
@@ -9648,19 +9651,19 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9685,13 +9688,13 @@
         <v>80</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>80</v>
@@ -9709,31 +9712,31 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9747,7 +9750,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9770,19 +9773,19 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9807,13 +9810,13 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
@@ -9831,7 +9834,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9843,19 +9846,19 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9869,7 +9872,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9880,7 +9883,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9892,17 +9895,17 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
@@ -9951,19 +9954,19 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>80</v>
@@ -9975,7 +9978,7 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9989,7 +9992,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10000,7 +10003,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -10012,13 +10015,13 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -10069,19 +10072,19 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
@@ -10090,10 +10093,10 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -10107,7 +10110,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10127,19 +10130,19 @@
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10189,7 +10192,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10201,7 +10204,7 @@
         <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>80</v>
@@ -10210,10 +10213,10 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10227,7 +10230,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10247,19 +10250,19 @@
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10309,7 +10312,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10321,7 +10324,7 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>80</v>
@@ -10330,10 +10333,10 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10347,7 +10350,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10367,22 +10370,22 @@
         <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>80</v>
@@ -10431,7 +10434,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10443,7 +10446,7 @@
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>80</v>
@@ -10452,10 +10455,10 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10469,7 +10472,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10480,7 +10483,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>80</v>
@@ -10492,13 +10495,13 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10549,13 +10552,13 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>80</v>
@@ -10573,7 +10576,7 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10587,11 +10590,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10610,16 +10613,16 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10669,7 +10672,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10681,7 +10684,7 @@
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>80</v>
@@ -10693,7 +10696,7 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10707,11 +10710,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10724,25 +10727,25 @@
         <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -10791,7 +10794,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10803,7 +10806,7 @@
         <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>80</v>
@@ -10815,7 +10818,7 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10829,7 +10832,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10837,10 +10840,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>80</v>
@@ -10849,22 +10852,22 @@
         <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -10889,13 +10892,13 @@
         <v>80</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>80</v>
@@ -10913,34 +10916,34 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10951,7 +10954,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10962,7 +10965,7 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>80</v>
@@ -10971,22 +10974,22 @@
         <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -11035,37 +11038,37 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>80</v>
@@ -11073,7 +11076,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11084,7 +11087,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>80</v>
@@ -11096,19 +11099,19 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>80</v>
@@ -11133,13 +11136,13 @@
         <v>80</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>80</v>
@@ -11157,19 +11160,19 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
@@ -11178,10 +11181,10 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11195,11 +11198,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11218,19 +11221,19 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
@@ -11255,13 +11258,13 @@
         <v>80</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>80</v>
@@ -11279,7 +11282,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11291,25 +11294,25 @@
         <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>80</v>
@@ -11317,7 +11320,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11343,16 +11346,16 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>80</v>
@@ -11401,7 +11404,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11413,7 +11416,7 @@
         <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>80</v>
@@ -11422,10 +11425,10 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-mp4p-stillend.xlsx
+++ b/StructureDefinition-mp4p-stillend.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="568">
   <si>
     <t>Property</t>
   </si>
@@ -271,10 +271,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -297,47 +293,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -388,10 +388,6 @@
   </si>
   <si>
     <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2115,39 +2111,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.3203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.62890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -2382,33 +2378,33 @@
         <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP2" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2419,28 +2415,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2490,13 +2486,13 @@
         <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>80</v>
@@ -2528,7 +2524,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2539,25 +2535,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2608,19 +2604,19 @@
         <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>80</v>
@@ -2646,7 +2642,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2657,7 +2653,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>80</v>
@@ -2669,7 +2665,7 @@
         <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>105</v>
@@ -2732,7 +2728,7 @@
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>80</v>
@@ -2895,28 +2891,28 @@
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2966,19 +2962,19 @@
         <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>80</v>
@@ -3004,7 +3000,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -3015,28 +3011,28 @@
         <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3086,19 +3082,19 @@
         <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>80</v>
@@ -3124,7 +3120,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3135,28 +3131,28 @@
         <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3206,19 +3202,19 @@
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>80</v>
@@ -3244,7 +3240,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3258,25 +3254,25 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3326,7 +3322,7 @@
         <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -3338,7 +3334,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>80</v>
@@ -3364,7 +3360,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3384,19 +3380,19 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3422,31 +3418,31 @@
         <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3458,7 +3454,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>80</v>
@@ -3484,7 +3480,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3504,19 +3500,19 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3542,31 +3538,31 @@
         <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3578,7 +3574,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>80</v>
@@ -3604,7 +3600,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3615,28 +3611,28 @@
         <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3686,19 +3682,19 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>80</v>
@@ -3724,7 +3720,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3735,11 +3731,11 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3747,16 +3743,16 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3782,43 +3778,43 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>80</v>
@@ -3844,18 +3840,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
@@ -3867,16 +3863,16 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3926,31 +3922,31 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3964,11 +3960,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3987,16 +3983,16 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4046,7 +4042,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -4070,7 +4066,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4084,7 +4080,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4113,7 +4109,7 @@
         <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>114</v>
@@ -4166,7 +4162,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -4190,7 +4186,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4204,7 +4200,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4221,7 +4217,7 @@
         <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
@@ -4230,16 +4226,16 @@
         <v>111</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>114</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -4288,7 +4284,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4312,7 +4308,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4326,7 +4322,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4346,20 +4342,20 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4408,7 +4404,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4420,22 +4416,22 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4446,11 +4442,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4466,20 +4462,20 @@
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
@@ -4528,7 +4524,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4540,19 +4536,19 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4566,11 +4562,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4586,19 +4582,19 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4648,7 +4644,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4660,19 +4656,19 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4686,7 +4682,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4694,110 +4690,110 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="I22" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W22" t="s" s="2">
+      <c r="X22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4808,7 +4804,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4831,19 +4827,19 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4868,14 +4864,14 @@
         <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4892,7 +4888,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4904,7 +4900,7 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>80</v>
@@ -4916,10 +4912,10 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4930,42 +4926,42 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="H24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4990,61 +4986,61 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -5052,7 +5048,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5063,7 +5059,7 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
@@ -5075,7 +5071,7 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>105</v>
@@ -5138,7 +5134,7 @@
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
@@ -5170,7 +5166,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5290,7 +5286,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5298,34 +5294,34 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5362,7 +5358,7 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
@@ -5372,7 +5368,7 @@
         <v>117</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5384,7 +5380,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>80</v>
@@ -5393,10 +5389,10 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5410,44 +5406,44 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5457,7 +5453,7 @@
         <v>80</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>80</v>
@@ -5496,7 +5492,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5508,7 +5504,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
@@ -5517,10 +5513,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5534,7 +5530,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5545,7 +5541,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5557,7 +5553,7 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>105</v>
@@ -5620,7 +5616,7 @@
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
@@ -5652,7 +5648,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5772,7 +5768,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5780,34 +5776,34 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="H31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5856,31 +5852,31 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5894,7 +5890,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5905,28 +5901,28 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5976,31 +5972,31 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6014,7 +6010,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6022,32 +6018,32 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="H33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -6096,31 +6092,31 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6134,7 +6130,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6145,29 +6141,29 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -6216,31 +6212,31 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6254,7 +6250,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6265,31 +6261,31 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6338,31 +6334,31 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6376,7 +6372,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6387,31 +6383,31 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6460,31 +6456,31 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6498,7 +6494,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6506,34 +6502,34 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="H37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6582,34 +6578,34 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6620,7 +6616,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6640,19 +6636,19 @@
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6702,7 +6698,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6714,7 +6710,7 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
@@ -6723,13 +6719,13 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6740,42 +6736,42 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6824,34 +6820,34 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6862,42 +6858,42 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="H40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6934,44 +6930,44 @@
         <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AK40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6982,44 +6978,44 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="H41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -7068,34 +7064,34 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7106,7 +7102,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7117,7 +7113,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -7129,13 +7125,13 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7192,7 +7188,7 @@
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
@@ -7224,7 +7220,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7250,10 +7246,10 @@
         <v>111</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7340,10 +7336,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>80</v>
@@ -7353,11 +7349,11 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7365,13 +7361,13 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7431,7 +7427,7 @@
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>119</v>
@@ -7446,7 +7442,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7460,7 +7456,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7471,7 +7467,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -7483,13 +7479,13 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7540,13 +7536,13 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>80</v>
@@ -7578,7 +7574,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7589,28 +7585,28 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7660,19 +7656,19 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>80</v>
@@ -7681,13 +7677,13 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7698,7 +7694,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7718,20 +7714,20 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7780,7 +7776,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7792,22 +7788,22 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7818,7 +7814,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7826,34 +7822,34 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7890,47 +7886,47 @@
         <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AI48" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -7938,44 +7934,44 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="H49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -8024,37 +8020,37 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AI49" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8062,7 +8058,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8085,19 +8081,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -8122,55 +8118,55 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH50" t="s" s="2">
+      <c r="AI50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8184,11 +8180,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -8207,19 +8203,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -8244,14 +8240,14 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8268,7 +8264,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8280,25 +8276,25 @@
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8306,7 +8302,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8329,19 +8325,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8390,7 +8386,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8402,7 +8398,7 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>80</v>
@@ -8411,10 +8407,10 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8428,7 +8424,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8451,16 +8447,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8486,61 +8482,61 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8548,7 +8544,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8559,7 +8555,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>80</v>
@@ -8571,19 +8567,19 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8608,55 +8604,55 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8670,7 +8666,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8693,16 +8689,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8752,37 +8748,37 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -8790,7 +8786,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8813,16 +8809,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8872,37 +8868,37 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -8910,7 +8906,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8933,19 +8929,19 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8994,7 +8990,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9006,19 +9002,19 @@
         <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9032,7 +9028,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9043,7 +9039,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -9055,7 +9051,7 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>105</v>
@@ -9118,7 +9114,7 @@
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>80</v>
@@ -9150,7 +9146,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9270,11 +9266,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9287,25 +9283,25 @@
         <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>111</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>114</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9354,7 +9350,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9378,7 +9374,7 @@
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9392,7 +9388,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9403,7 +9399,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
@@ -9415,13 +9411,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9472,31 +9468,31 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH61" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AI61" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9510,7 +9506,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9521,7 +9517,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -9533,13 +9529,13 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9590,31 +9586,31 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH62" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AI62" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="AM62" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9628,7 +9624,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9639,7 +9635,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
@@ -9651,19 +9647,19 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9688,55 +9684,55 @@
         <v>80</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AL63" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="AM63" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9750,7 +9746,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9773,19 +9769,19 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9810,14 +9806,14 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9834,7 +9830,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9846,19 +9842,19 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="AM64" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9872,7 +9868,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9883,7 +9879,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9895,17 +9891,17 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
@@ -9954,19 +9950,19 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>80</v>
@@ -9978,7 +9974,7 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9992,7 +9988,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10003,7 +9999,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -10015,13 +10011,13 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -10072,19 +10068,19 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
@@ -10093,10 +10089,10 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -10110,7 +10106,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10130,19 +10126,19 @@
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10192,7 +10188,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10204,7 +10200,7 @@
         <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>80</v>
@@ -10213,10 +10209,10 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10230,7 +10226,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10250,19 +10246,19 @@
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10312,7 +10308,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10324,7 +10320,7 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>80</v>
@@ -10333,10 +10329,10 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10350,7 +10346,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10370,22 +10366,22 @@
         <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>80</v>
@@ -10434,7 +10430,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10446,7 +10442,7 @@
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>80</v>
@@ -10455,10 +10451,10 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10472,7 +10468,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10483,7 +10479,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>80</v>
@@ -10495,7 +10491,7 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>105</v>
@@ -10558,7 +10554,7 @@
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>80</v>
@@ -10590,7 +10586,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10710,11 +10706,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10727,25 +10723,25 @@
         <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>111</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>114</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -10794,7 +10790,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10818,7 +10814,7 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10832,7 +10828,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10840,34 +10836,34 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F73" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="N73" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -10892,14 +10888,14 @@
         <v>80</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10916,34 +10912,34 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10954,7 +10950,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10965,31 +10961,31 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J74" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>559</v>
-      </c>
       <c r="N74" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -11038,37 +11034,37 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>80</v>
@@ -11076,7 +11072,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11087,7 +11083,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>80</v>
@@ -11099,19 +11095,19 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="N75" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>80</v>
@@ -11136,55 +11132,55 @@
         <v>80</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Y75" t="s" s="2">
+      <c r="Z75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH75" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH75" t="s" s="2">
+      <c r="AI75" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11198,11 +11194,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11221,19 +11217,19 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
@@ -11258,14 +11254,14 @@
         <v>80</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11282,7 +11278,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11294,25 +11290,25 @@
         <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>80</v>
@@ -11320,7 +11316,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11346,16 +11342,16 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>568</v>
-      </c>
       <c r="M77" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>80</v>
@@ -11404,7 +11400,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11416,7 +11412,7 @@
         <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>80</v>
@@ -11425,10 +11421,10 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
